--- a/map.xlsx
+++ b/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Various\PythonLast\myDATAcomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0549AA7-508A-4421-A174-8E08DA8EA448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F74B0E-7270-47AE-9C54-376FF2E77629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1459,7 +1459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="337">
   <si>
     <t>ΠΑΡΑΣΤΑΤΙΚΟ</t>
   </si>
@@ -2226,9 +2226,6 @@
     <t>Πωλήσεις αγαθών και υπηρεσιών Λιανικές βάσει άρθρου 39α παρ 5 του Κώδικα Φ.Π.Α.</t>
   </si>
   <si>
-    <t>Πωλήσεις αγαθών και υπηρεσιών \Εξωτερικού Ενδοκοινοτικές</t>
-  </si>
-  <si>
     <t>Πωλήσεις αγαθών και υπηρεσιών Εξωτερικού Τρίτες Χώρες</t>
   </si>
   <si>
@@ -2461,6 +2458,18 @@
   </si>
   <si>
     <t>category2_7 - Αγορές Παγίων (-) / (+)</t>
+  </si>
+  <si>
+    <t>1.2 - ΤΙΜΟΛΟΓΙΟ ΠΩΛΗΣΗΣ / ΕΝΔΟΚΟΙΝΟΤΙΚΕΣ ΠΑΡΑΔΟΣΕΙΣ</t>
+  </si>
+  <si>
+    <t>Πωλήσεις αγαθών και υπηρεσιών Εξωτερικού Ενδοκοινοτικές</t>
+  </si>
+  <si>
+    <t>E3_561_005 - Πωλήσεις αγαθών και υπηρεσιών Εξωτερικού Ενδοκοινοτικές</t>
+  </si>
+  <si>
+    <t>E3_880_003 - Πωλήσεις Παγίων Εξωτερικού Ενδοκοινοτικές</t>
   </si>
 </sst>
 </file>
@@ -2512,7 +2521,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2571,24 +2580,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2600,6 +2608,35 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2881,15 +2918,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.44140625" customWidth="1"/>
-    <col min="2" max="2" width="107.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2900,7 +2939,7 @@
       <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2908,2343 +2947,2475 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>321</v>
+      <c r="B2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>321</v>
+      <c r="B3" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>321</v>
+      <c r="B4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>322</v>
+      <c r="B5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>322</v>
+      <c r="B6" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>322</v>
+      <c r="B7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>323</v>
+      <c r="B8" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>323</v>
+      <c r="B9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>323</v>
+      <c r="B10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>323</v>
+      <c r="B11" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>324</v>
+      <c r="B12" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>325</v>
+      <c r="B13" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>325</v>
+      <c r="B14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>325</v>
+      <c r="B15" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>325</v>
+      <c r="B16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>325</v>
+      <c r="B17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>325</v>
+      <c r="B18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>325</v>
+      <c r="B19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>325</v>
+      <c r="B20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>325</v>
+      <c r="B21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>325</v>
+      <c r="B22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>326</v>
+      <c r="B23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>326</v>
+      <c r="B24" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>327</v>
+      <c r="C27" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>328</v>
+      <c r="B28" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>328</v>
+      <c r="B29" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>328</v>
+      <c r="B30" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>328</v>
+      <c r="B31" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>328</v>
+      <c r="B32" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>329</v>
+      <c r="B33" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>329</v>
+      <c r="B34" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>329</v>
+      <c r="B35" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>329</v>
+      <c r="B36" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>330</v>
+      <c r="B37" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>330</v>
+      <c r="B38" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>330</v>
+      <c r="B39" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>330</v>
+      <c r="B40" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>330</v>
+      <c r="B41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>330</v>
+      <c r="B42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>330</v>
+      <c r="B43" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>330</v>
+      <c r="B44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>330</v>
+      <c r="B45" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>330</v>
+      <c r="B46" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>330</v>
+      <c r="B47" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>330</v>
+      <c r="B48" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>330</v>
+      <c r="B49" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>330</v>
+      <c r="B50" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>330</v>
+      <c r="B51" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>331</v>
+      <c r="B52" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>331</v>
+      <c r="B53" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>331</v>
+      <c r="B54" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>331</v>
+      <c r="B55" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>331</v>
+      <c r="B56" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>331</v>
+      <c r="B57" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>331</v>
+      <c r="B58" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>331</v>
+      <c r="B59" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>331</v>
+      <c r="B60" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>331</v>
+      <c r="B61" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>331</v>
+      <c r="B62" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>331</v>
+      <c r="B63" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>331</v>
+      <c r="B64" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>331</v>
+      <c r="B65" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>331</v>
+      <c r="B66" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>331</v>
+      <c r="B67" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>331</v>
+      <c r="B68" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>331</v>
+      <c r="B69" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>331</v>
+      <c r="B70" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>331</v>
+      <c r="B71" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>331</v>
+      <c r="B72" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>331</v>
+      <c r="B73" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>331</v>
+      <c r="B74" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>331</v>
+      <c r="B75" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>331</v>
+      <c r="B76" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>331</v>
+      <c r="B77" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>331</v>
+      <c r="B78" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>331</v>
+      <c r="B79" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>331</v>
+      <c r="B80" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>331</v>
+      <c r="B81" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>332</v>
+      <c r="B82" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>332</v>
+      <c r="B83" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>332</v>
+      <c r="B84" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>332</v>
+      <c r="B85" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>332</v>
+      <c r="B86" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>332</v>
+      <c r="B87" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>332</v>
+      <c r="B88" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>332</v>
+      <c r="B89" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>332</v>
+      <c r="B90" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>332</v>
+      <c r="B91" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>332</v>
+      <c r="B92" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>332</v>
+      <c r="B93" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>332</v>
+      <c r="B94" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>332</v>
+      <c r="B95" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>332</v>
+      <c r="B96" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>332</v>
+      <c r="B97" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>332</v>
+      <c r="B98" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>332</v>
+      <c r="B99" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>332</v>
+      <c r="B100" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>332</v>
+      <c r="B101" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>332</v>
+      <c r="B102" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>332</v>
+      <c r="B103" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>332</v>
+      <c r="B104" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>332</v>
+      <c r="B105" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>332</v>
+      <c r="B106" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>332</v>
+      <c r="B107" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>332</v>
+      <c r="B108" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>332</v>
+      <c r="B109" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>332</v>
+      <c r="B110" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>332</v>
+      <c r="B111" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>333</v>
+      <c r="B112" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>333</v>
+      <c r="B113" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>72</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>323</v>
+      <c r="B114" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>72</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>323</v>
+      <c r="B115" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>72</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>323</v>
+      <c r="B116" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>72</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>323</v>
+      <c r="B117" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>72</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>325</v>
+      <c r="B118" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>72</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>325</v>
+      <c r="B119" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>325</v>
+      <c r="B120" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>72</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>325</v>
+      <c r="B121" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>325</v>
+      <c r="B122" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>72</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>325</v>
+      <c r="B123" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>72</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>325</v>
+      <c r="B124" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>72</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>325</v>
+      <c r="B125" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>72</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>325</v>
+      <c r="B126" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>72</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>328</v>
+      <c r="B127" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>72</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>328</v>
+      <c r="B128" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>72</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>328</v>
+      <c r="B129" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>72</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>328</v>
+      <c r="B130" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>72</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>328</v>
+      <c r="B131" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>72</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>329</v>
+      <c r="B132" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>329</v>
+      <c r="B133" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>72</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>329</v>
+      <c r="B134" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>72</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>329</v>
+      <c r="B135" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>72</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>330</v>
+      <c r="B136" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>72</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>330</v>
+      <c r="B137" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>72</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>330</v>
+      <c r="B138" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>72</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>330</v>
+      <c r="B139" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>72</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>330</v>
+      <c r="B140" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>72</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>330</v>
+      <c r="B141" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>72</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>330</v>
+      <c r="B142" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>72</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>330</v>
+      <c r="B143" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>72</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>330</v>
+      <c r="B144" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>72</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>330</v>
+      <c r="B145" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>72</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>330</v>
+      <c r="B146" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>72</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>330</v>
+      <c r="B147" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>72</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>330</v>
+      <c r="B148" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>72</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>330</v>
+      <c r="B149" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>330</v>
+      <c r="B150" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>72</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>331</v>
+      <c r="B151" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>72</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>331</v>
+      <c r="B152" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>72</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>331</v>
+      <c r="B153" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>72</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>331</v>
+      <c r="B154" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>72</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>331</v>
+      <c r="B155" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>72</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>331</v>
+      <c r="B156" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>72</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>331</v>
+      <c r="B157" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>72</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>331</v>
+      <c r="B158" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>72</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>331</v>
+      <c r="B159" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>72</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>331</v>
+      <c r="B160" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>72</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>331</v>
+      <c r="B161" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>72</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>331</v>
+      <c r="B162" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>72</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>331</v>
+      <c r="B163" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>72</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>331</v>
+      <c r="B164" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>72</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>331</v>
+      <c r="B165" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>72</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>331</v>
+      <c r="B166" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>72</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>331</v>
+      <c r="B167" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>72</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>331</v>
+      <c r="B168" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>72</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>331</v>
+      <c r="B169" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>72</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>331</v>
+      <c r="B170" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>72</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>331</v>
+      <c r="B171" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>72</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>331</v>
+      <c r="B172" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>72</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>331</v>
+      <c r="B173" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>72</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>331</v>
+      <c r="B174" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>331</v>
+      <c r="B175" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>72</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>331</v>
+      <c r="B176" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>72</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>331</v>
+      <c r="B177" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>72</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>331</v>
+      <c r="B178" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>72</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>332</v>
+      <c r="B179" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>72</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>332</v>
+      <c r="B180" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>72</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>332</v>
+      <c r="B181" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>72</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>332</v>
+      <c r="B182" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>72</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>332</v>
+      <c r="B183" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>72</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>332</v>
+      <c r="B184" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>72</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>332</v>
+      <c r="B185" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>72</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>332</v>
+      <c r="B186" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>72</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>332</v>
+      <c r="B187" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>72</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>332</v>
+      <c r="B188" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>72</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>332</v>
+      <c r="B189" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>72</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>332</v>
+      <c r="B190" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>72</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>332</v>
+      <c r="B191" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>72</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>332</v>
+      <c r="B192" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>72</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>332</v>
+      <c r="B193" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>72</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>332</v>
+      <c r="B194" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>72</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>332</v>
+      <c r="B195" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>72</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>332</v>
+      <c r="B196" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>72</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>332</v>
+      <c r="B197" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>72</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>332</v>
+      <c r="B198" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>72</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>332</v>
+      <c r="B199" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>72</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>332</v>
+      <c r="B200" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>72</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>332</v>
+      <c r="B201" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>72</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>332</v>
+      <c r="B202" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>72</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>332</v>
+      <c r="B203" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>72</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>332</v>
+      <c r="B204" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>72</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>332</v>
+      <c r="B205" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>72</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>332</v>
+      <c r="B206" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>72</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>332</v>
+      <c r="B207" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>72</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>332</v>
+      <c r="B208" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>72</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>333</v>
+      <c r="B209" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>72</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>333</v>
+      <c r="B210" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>72</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>333</v>
+      <c r="B211" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>72</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>333</v>
+      <c r="B212" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>72</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>333</v>
+      <c r="B213" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>72</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>333</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C214" s="7" t="s">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>333</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>333</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>333</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>333</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>333</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>333</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>333</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>333</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>333</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>333</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>333</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5483,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7935CF0-BC7A-49D7-97B5-CC1FDCEFC7AE}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5578,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5586,7 +5757,7 @@
         <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5594,7 +5765,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5690,7 +5861,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5698,7 +5869,7 @@
         <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5706,7 +5877,7 @@
         <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -5714,7 +5885,7 @@
         <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5722,7 +5893,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5730,7 +5901,7 @@
         <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5738,7 +5909,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -5746,7 +5917,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">

--- a/map.xlsx
+++ b/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Various\PythonLast\myDATAcomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F74B0E-7270-47AE-9C54-376FF2E77629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBACF45E-CD6C-4888-ACFF-23E7A481DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1454,12 +1454,1197 @@
         </r>
       </text>
     </comment>
+    <comment ref="B255" authorId="0" shapeId="0" xr:uid="{9BA5F84C-46A7-4EA5-B760-0057247967FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>_Αγορές εμπορευμάτων χρήσης (καθαρό ποσό) Δ2, "Εμπορική Δραστηριότητα" -</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> κωδ.102[ΕΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B256" authorId="0" shapeId="0" xr:uid="{1A683C81-2F46-42F5-8378-BEB1A866F1F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>_Αγορές εμπορευμάτων χρήσης (καθαρό ποσό) Δ2, "Εμπορική Δραστηριότητα" -</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> κωδ.102[ΕΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγαθών του άρθρου 39α παρ.5 του Κώδικα Φ.Π.Α. (ν.2859/2000) </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._003)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B259" authorId="0" shapeId="0" xr:uid="{A8E659D7-9310-45FF-A098-BB2D7EED984B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγορές πρώτων υλών και υλικών χρήσης (καθαρό ποσό) Δ3, "Παραγωγική - Αγροτική Δραστηριότητα"  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>κωδ.202[ΕΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B262" authorId="0" shapeId="0" xr:uid="{21980AFC-37B8-4462-9C57-3CEE1E73CD52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγορές πρώτων υλών και υλικών χρήσης (καθαρό ποσό) Δ3, "Παραγωγική - Αγροτική Δραστηριότητα"  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>κωδ.302[ΑΒΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B265" authorId="0" shapeId="0" xr:uid="{0DF89E10-8119-429C-AC51-9285BC518E72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγορές ζώων - φυτών (καθαρό ποσό)  Δ4, "Αγροτική Δραστηριότητα" - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>κωδ.313[ΑΒΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B275" authorId="0" shapeId="0" xr:uid="{738627E4-D897-4937-B6A7-4C669B47D1B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>_Αγορές εμπορευμάτων χρήσης (καθαρό ποσό) Δ2, "Εμπορική Δραστηριότητα" -</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> κωδ.102[ΕΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B276" authorId="0" shapeId="0" xr:uid="{35C9AF0E-31B4-4408-AFDC-1D1247C2671E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>_Αγορές εμπορευμάτων χρήσης (καθαρό ποσό) Δ2, "Εμπορική Δραστηριότητα" -</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> κωδ.102[ΕΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγαθών του άρθρου 39α παρ.5 του Κώδικα Φ.Π.Α. (ν.2859/2000) </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._003)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B279" authorId="0" shapeId="0" xr:uid="{521E4556-6D88-4DC7-974D-E5DED236A88F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγορές πρώτων υλών και υλικών χρήσης (καθαρό ποσό) Δ3, "Παραγωγική - Αγροτική Δραστηριότητα"  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>κωδ.202[ΕΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B282" authorId="0" shapeId="0" xr:uid="{6222B4E0-3310-448D-A6C4-9AF8EC83CA24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγορές πρώτων υλών και υλικών χρήσης (καθαρό ποσό) Δ3, "Παραγωγική - Αγροτική Δραστηριότητα"  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>κωδ.302[ΑΒΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B285" authorId="0" shapeId="0" xr:uid="{54B7168A-A79C-43FF-95F3-5960A050E6B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγορές ζώων - φυτών (καθαρό ποσό)  Δ4, "Αγροτική Δραστηριότητα" - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>κωδ.313[ΑΒΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B397" authorId="0" shapeId="0" xr:uid="{AEC90D12-FEE1-4D8D-93EE-AFB430B60F04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>_Αγορές εμπορευμάτων χρήσης (καθαρό ποσό) Δ2, "Εμπορική Δραστηριότητα" -</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> κωδ.102[ΕΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B398" authorId="0" shapeId="0" xr:uid="{9B6F29F3-B7ED-412C-8A95-552156738C0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>_Αγορές εμπορευμάτων χρήσης (καθαρό ποσό) Δ2, "Εμπορική Δραστηριότητα" -</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> κωδ.102[ΕΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγαθών του άρθρου 39α παρ.5 του Κώδικα Φ.Π.Α. (ν.2859/2000) </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._003)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B401" authorId="0" shapeId="0" xr:uid="{F1284504-DB12-4677-A886-C8868BBD257F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγορές πρώτων υλών και υλικών χρήσης (καθαρό ποσό) Δ3, "Παραγωγική - Αγροτική Δραστηριότητα"  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>κωδ.202[ΕΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B404" authorId="0" shapeId="0" xr:uid="{662C4E1F-6ABA-41A6-83EF-601E8BAE1E88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγορές πρώτων υλών και υλικών χρήσης (καθαρό ποσό) Δ3, "Παραγωγική - Αγροτική Δραστηριότητα"  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>κωδ.302[ΑΒΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B407" authorId="0" shapeId="0" xr:uid="{C84FDCDF-0148-40E1-94D0-2F46A512F108}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Ε3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Αγορές ζώων - φυτών (καθαρό ποσό)  Δ4, "Αγροτική Δραστηριότητα" - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>κωδ.313[ΑΒΔ]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">_Χονδρικές </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>(κωδ._001)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="354">
   <si>
     <t>ΠΑΡΑΣΤΑΤΙΚΟ</t>
   </si>
@@ -2470,6 +3655,57 @@
   </si>
   <si>
     <t>E3_880_003 - Πωλήσεις Παγίων Εξωτερικού Ενδοκοινοτικές</t>
+  </si>
+  <si>
+    <t>1.3 - ΤΙΜΟΛΟΓΙΟ ΠΩΛΗΣΗΣ / ΠΑΡΑΔΟΣΕΙΣ ΤΡΙΤΩΝ ΧΩΡΩΝ</t>
+  </si>
+  <si>
+    <t>1.4 - ΤΙΜΟΛΟΓΙΟ ΠΩΛΗΣΗΣ / ΠΩΛΗΣΗ ΓΙΑ ΛΟΓΑΡΙΑΣΜΟ ΤΡΙΤΩΝ</t>
+  </si>
+  <si>
+    <t>1.5 - ΤΙΜΟΛΟΓΙΟ ΠΩΛΗΣΗΣ / ΕΚΚΑΘΑΡΙΣΗ ΠΩΛΗΣΕΩΝ ΤΡΙΤΩΝ</t>
+  </si>
+  <si>
+    <t>ΑΝΕΥ ΧΑΡΑΚΤΗΡΙΣΜΟΥ Ε3</t>
+  </si>
+  <si>
+    <t>2.2 - ΤΙΜΟΛΟΓΙΟ ΠΑΡΟΧΗΣ / ΕΝΔΟΚΟΙΝΟΤΙΚΗ ΠΑΡΟΧΗ ΥΠΗΡΕΣΙΩΝ</t>
+  </si>
+  <si>
+    <t>2.3 - ΤΙΜΟΛΟΓΙΟ ΠΑΡΟΧΗΣ / ΠΑΡΟΧΗ ΥΠΗΡΕΣΙΩΝ ΤΡΙΤΩΝ ΧΩΡΩΝ</t>
+  </si>
+  <si>
+    <t>3.1 - ΤΙΤΛΟΣ ΚΤΗΣΗΣ (ΜΗ ΥΠΟΧΡΕΟΣ ΕΚΔΟΤΗΣ)</t>
+  </si>
+  <si>
+    <t>3.2 - ΤΙΤΛΟΣ ΚΤΗΣΗΣ (ΑΡΝΗΣΗ ΕΚΔΟΣΗΣ ΑΠΟ ΥΠΟΧΡΕΟ ΕΚΔΟΤΗ)</t>
+  </si>
+  <si>
+    <t>E3_561_006 - Πωλήσεις αγαθών και υπηρεσιών Εξωτερικού Τρίτες Χώρες</t>
+  </si>
+  <si>
+    <t>E3_102_002 - Αγορές εμπορευμάτων χρήσης (καθαρό ποσό)/Λιανικές</t>
+  </si>
+  <si>
+    <t>E3_313_002 - Αγορές ζώων - φυτών (καθαρό ποσό)/Λιανικές</t>
+  </si>
+  <si>
+    <t>E3_202_002 - Αγορές πρώτων υλών και υλικών χρήσης (καθαρό ποσό)/Λιανικές</t>
+  </si>
+  <si>
+    <t>E3_302_002 - Αγορές πρώτων υλών και υλικών χρήσης (καθαρό ποσό)/Λιανικές</t>
+  </si>
+  <si>
+    <t>E3_882_002 - Αγορές ενσώματων παγίων χρήσης/Λιανικές</t>
+  </si>
+  <si>
+    <t>E3_883_002 - Αγορές μη ενσώματων παγίων χρήσης/Λιανικές</t>
+  </si>
+  <si>
+    <t>category2_9 - Έξοδα για λ/σμο τρίτων (-) / (+)</t>
+  </si>
+  <si>
+    <t>E3_880_004 - Πωλήσεις Παγίων Εξωτερικού Τρίτες Χώρες</t>
   </si>
 </sst>
 </file>
@@ -2521,7 +3757,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2591,12 +3827,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2609,34 +3883,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2918,18 +4205,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.77734375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2939,7 +4227,7 @@
       <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2947,10 +4235,10 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -2958,10 +4246,10 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -2969,10 +4257,10 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -2980,10 +4268,10 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2991,10 +4279,10 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3002,10 +4290,10 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3013,10 +4301,10 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3024,10 +4312,10 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3035,10 +4323,10 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3046,10 +4334,10 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3057,10 +4345,10 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>323</v>
       </c>
     </row>
@@ -3068,10 +4356,10 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3079,10 +4367,10 @@
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3090,10 +4378,10 @@
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3101,10 +4389,10 @@
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3112,10 +4400,10 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3123,10 +4411,10 @@
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3134,10 +4422,10 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3145,10 +4433,10 @@
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3156,10 +4444,10 @@
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3167,10 +4455,10 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3178,10 +4466,10 @@
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3189,10 +4477,10 @@
       <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3200,10 +4488,10 @@
       <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3211,10 +4499,10 @@
       <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="8" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3222,10 +4510,10 @@
       <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="8" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3233,10 +4521,10 @@
       <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3244,10 +4532,10 @@
       <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3255,10 +4543,10 @@
       <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3266,10 +4554,10 @@
       <c r="A31" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3277,10 +4565,10 @@
       <c r="A32" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3288,10 +4576,10 @@
       <c r="A33" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3299,10 +4587,10 @@
       <c r="A34" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3310,10 +4598,10 @@
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3321,10 +4609,10 @@
       <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3332,10 +4620,10 @@
       <c r="A37" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3343,10 +4631,10 @@
       <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3354,10 +4642,10 @@
       <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3365,10 +4653,10 @@
       <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3376,10 +4664,10 @@
       <c r="A41" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3387,10 +4675,10 @@
       <c r="A42" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3398,10 +4686,10 @@
       <c r="A43" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3409,10 +4697,10 @@
       <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3420,10 +4708,10 @@
       <c r="A45" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3431,10 +4719,10 @@
       <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3442,10 +4730,10 @@
       <c r="A47" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3453,10 +4741,10 @@
       <c r="A48" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3464,10 +4752,10 @@
       <c r="A49" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3475,10 +4763,10 @@
       <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3486,10 +4774,10 @@
       <c r="A51" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3497,10 +4785,10 @@
       <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3508,10 +4796,10 @@
       <c r="A53" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3519,10 +4807,10 @@
       <c r="A54" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3530,10 +4818,10 @@
       <c r="A55" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3541,10 +4829,10 @@
       <c r="A56" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3552,10 +4840,10 @@
       <c r="A57" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3563,10 +4851,10 @@
       <c r="A58" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3574,10 +4862,10 @@
       <c r="A59" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3585,10 +4873,10 @@
       <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3596,10 +4884,10 @@
       <c r="A61" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3607,10 +4895,10 @@
       <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3618,10 +4906,10 @@
       <c r="A63" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3629,10 +4917,10 @@
       <c r="A64" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3640,10 +4928,10 @@
       <c r="A65" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3651,10 +4939,10 @@
       <c r="A66" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3662,10 +4950,10 @@
       <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3673,10 +4961,10 @@
       <c r="A68" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3684,10 +4972,10 @@
       <c r="A69" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3695,10 +4983,10 @@
       <c r="A70" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3706,10 +4994,10 @@
       <c r="A71" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3717,10 +5005,10 @@
       <c r="A72" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3728,10 +5016,10 @@
       <c r="A73" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3739,10 +5027,10 @@
       <c r="A74" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3750,10 +5038,10 @@
       <c r="A75" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3761,10 +5049,10 @@
       <c r="A76" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3772,10 +5060,10 @@
       <c r="A77" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3783,10 +5071,10 @@
       <c r="A78" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3794,10 +5082,10 @@
       <c r="A79" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3805,10 +5093,10 @@
       <c r="A80" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3816,10 +5104,10 @@
       <c r="A81" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3827,10 +5115,10 @@
       <c r="A82" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3838,10 +5126,10 @@
       <c r="A83" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3849,10 +5137,10 @@
       <c r="A84" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3860,10 +5148,10 @@
       <c r="A85" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3871,10 +5159,10 @@
       <c r="A86" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3882,10 +5170,10 @@
       <c r="A87" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3893,10 +5181,10 @@
       <c r="A88" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3904,10 +5192,10 @@
       <c r="A89" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3915,10 +5203,10 @@
       <c r="A90" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3926,10 +5214,10 @@
       <c r="A91" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3937,10 +5225,10 @@
       <c r="A92" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3948,10 +5236,10 @@
       <c r="A93" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3959,10 +5247,10 @@
       <c r="A94" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3970,10 +5258,10 @@
       <c r="A95" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3981,10 +5269,10 @@
       <c r="A96" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3992,10 +5280,10 @@
       <c r="A97" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4003,10 +5291,10 @@
       <c r="A98" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4014,10 +5302,10 @@
       <c r="A99" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4025,10 +5313,10 @@
       <c r="A100" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4036,10 +5324,10 @@
       <c r="A101" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4047,10 +5335,10 @@
       <c r="A102" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4058,10 +5346,10 @@
       <c r="A103" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4069,10 +5357,10 @@
       <c r="A104" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4080,10 +5368,10 @@
       <c r="A105" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4091,10 +5379,10 @@
       <c r="A106" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4102,10 +5390,10 @@
       <c r="A107" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4113,10 +5401,10 @@
       <c r="A108" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4124,10 +5412,10 @@
       <c r="A109" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4135,10 +5423,10 @@
       <c r="A110" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4146,10 +5434,10 @@
       <c r="A111" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4157,10 +5445,10 @@
       <c r="A112" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="7" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4168,10 +5456,10 @@
       <c r="A113" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="7" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4179,10 +5467,10 @@
       <c r="A114" t="s">
         <v>72</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4190,10 +5478,10 @@
       <c r="A115" t="s">
         <v>72</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4201,10 +5489,10 @@
       <c r="A116" t="s">
         <v>72</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4212,10 +5500,10 @@
       <c r="A117" t="s">
         <v>72</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4223,10 +5511,10 @@
       <c r="A118" t="s">
         <v>72</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4234,10 +5522,10 @@
       <c r="A119" t="s">
         <v>72</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4245,10 +5533,10 @@
       <c r="A120" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4256,10 +5544,10 @@
       <c r="A121" t="s">
         <v>72</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4267,10 +5555,10 @@
       <c r="A122" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4278,10 +5566,10 @@
       <c r="A123" t="s">
         <v>72</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4289,10 +5577,10 @@
       <c r="A124" t="s">
         <v>72</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4300,10 +5588,10 @@
       <c r="A125" t="s">
         <v>72</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4311,10 +5599,10 @@
       <c r="A126" t="s">
         <v>72</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4322,10 +5610,10 @@
       <c r="A127" t="s">
         <v>72</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4333,10 +5621,10 @@
       <c r="A128" t="s">
         <v>72</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4344,10 +5632,10 @@
       <c r="A129" t="s">
         <v>72</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4355,10 +5643,10 @@
       <c r="A130" t="s">
         <v>72</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4366,10 +5654,10 @@
       <c r="A131" t="s">
         <v>72</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4377,10 +5665,10 @@
       <c r="A132" t="s">
         <v>72</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4388,10 +5676,10 @@
       <c r="A133" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4399,10 +5687,10 @@
       <c r="A134" t="s">
         <v>72</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4410,10 +5698,10 @@
       <c r="A135" t="s">
         <v>72</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4421,10 +5709,10 @@
       <c r="A136" t="s">
         <v>72</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4432,10 +5720,10 @@
       <c r="A137" t="s">
         <v>72</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4443,10 +5731,10 @@
       <c r="A138" t="s">
         <v>72</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4454,10 +5742,10 @@
       <c r="A139" t="s">
         <v>72</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4465,10 +5753,10 @@
       <c r="A140" t="s">
         <v>72</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4476,10 +5764,10 @@
       <c r="A141" t="s">
         <v>72</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4487,10 +5775,10 @@
       <c r="A142" t="s">
         <v>72</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4498,10 +5786,10 @@
       <c r="A143" t="s">
         <v>72</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4509,10 +5797,10 @@
       <c r="A144" t="s">
         <v>72</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4520,10 +5808,10 @@
       <c r="A145" t="s">
         <v>72</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4531,10 +5819,10 @@
       <c r="A146" t="s">
         <v>72</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4542,10 +5830,10 @@
       <c r="A147" t="s">
         <v>72</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4553,10 +5841,10 @@
       <c r="A148" t="s">
         <v>72</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4564,10 +5852,10 @@
       <c r="A149" t="s">
         <v>72</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4575,10 +5863,10 @@
       <c r="A150" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4586,10 +5874,10 @@
       <c r="A151" t="s">
         <v>72</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4597,10 +5885,10 @@
       <c r="A152" t="s">
         <v>72</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4608,10 +5896,10 @@
       <c r="A153" t="s">
         <v>72</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4619,10 +5907,10 @@
       <c r="A154" t="s">
         <v>72</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4630,10 +5918,10 @@
       <c r="A155" t="s">
         <v>72</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4641,10 +5929,10 @@
       <c r="A156" t="s">
         <v>72</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4652,10 +5940,10 @@
       <c r="A157" t="s">
         <v>72</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4663,10 +5951,10 @@
       <c r="A158" t="s">
         <v>72</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4674,10 +5962,10 @@
       <c r="A159" t="s">
         <v>72</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4685,10 +5973,10 @@
       <c r="A160" t="s">
         <v>72</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4696,10 +5984,10 @@
       <c r="A161" t="s">
         <v>72</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4707,10 +5995,10 @@
       <c r="A162" t="s">
         <v>72</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4718,10 +6006,10 @@
       <c r="A163" t="s">
         <v>72</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4729,10 +6017,10 @@
       <c r="A164" t="s">
         <v>72</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4740,10 +6028,10 @@
       <c r="A165" t="s">
         <v>72</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4751,10 +6039,10 @@
       <c r="A166" t="s">
         <v>72</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4762,10 +6050,10 @@
       <c r="A167" t="s">
         <v>72</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4773,10 +6061,10 @@
       <c r="A168" t="s">
         <v>72</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4784,10 +6072,10 @@
       <c r="A169" t="s">
         <v>72</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4795,10 +6083,10 @@
       <c r="A170" t="s">
         <v>72</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4806,10 +6094,10 @@
       <c r="A171" t="s">
         <v>72</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4817,10 +6105,10 @@
       <c r="A172" t="s">
         <v>72</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4828,10 +6116,10 @@
       <c r="A173" t="s">
         <v>72</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4839,10 +6127,10 @@
       <c r="A174" t="s">
         <v>72</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4850,10 +6138,10 @@
       <c r="A175" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4861,10 +6149,10 @@
       <c r="A176" t="s">
         <v>72</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4872,10 +6160,10 @@
       <c r="A177" t="s">
         <v>72</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4883,10 +6171,10 @@
       <c r="A178" t="s">
         <v>72</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4894,10 +6182,10 @@
       <c r="A179" t="s">
         <v>72</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4905,10 +6193,10 @@
       <c r="A180" t="s">
         <v>72</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4916,10 +6204,10 @@
       <c r="A181" t="s">
         <v>72</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4927,10 +6215,10 @@
       <c r="A182" t="s">
         <v>72</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4938,10 +6226,10 @@
       <c r="A183" t="s">
         <v>72</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4949,10 +6237,10 @@
       <c r="A184" t="s">
         <v>72</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4960,10 +6248,10 @@
       <c r="A185" t="s">
         <v>72</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4971,10 +6259,10 @@
       <c r="A186" t="s">
         <v>72</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4982,10 +6270,10 @@
       <c r="A187" t="s">
         <v>72</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4993,10 +6281,10 @@
       <c r="A188" t="s">
         <v>72</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5004,10 +6292,10 @@
       <c r="A189" t="s">
         <v>72</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5015,10 +6303,10 @@
       <c r="A190" t="s">
         <v>72</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5026,10 +6314,10 @@
       <c r="A191" t="s">
         <v>72</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5037,10 +6325,10 @@
       <c r="A192" t="s">
         <v>72</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5048,10 +6336,10 @@
       <c r="A193" t="s">
         <v>72</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5059,10 +6347,10 @@
       <c r="A194" t="s">
         <v>72</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5070,10 +6358,10 @@
       <c r="A195" t="s">
         <v>72</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5081,10 +6369,10 @@
       <c r="A196" t="s">
         <v>72</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5092,10 +6380,10 @@
       <c r="A197" t="s">
         <v>72</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5103,10 +6391,10 @@
       <c r="A198" t="s">
         <v>72</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5114,10 +6402,10 @@
       <c r="A199" t="s">
         <v>72</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5125,10 +6413,10 @@
       <c r="A200" t="s">
         <v>72</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5136,10 +6424,10 @@
       <c r="A201" t="s">
         <v>72</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5147,10 +6435,10 @@
       <c r="A202" t="s">
         <v>72</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5158,10 +6446,10 @@
       <c r="A203" t="s">
         <v>72</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5169,10 +6457,10 @@
       <c r="A204" t="s">
         <v>72</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5180,10 +6468,10 @@
       <c r="A205" t="s">
         <v>72</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5191,10 +6479,10 @@
       <c r="A206" t="s">
         <v>72</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5202,10 +6490,10 @@
       <c r="A207" t="s">
         <v>72</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5213,10 +6501,10 @@
       <c r="A208" t="s">
         <v>72</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5224,10 +6512,10 @@
       <c r="A209" t="s">
         <v>72</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="7" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5235,10 +6523,10 @@
       <c r="A210" t="s">
         <v>72</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="7" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5246,10 +6534,10 @@
       <c r="A211" t="s">
         <v>72</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="7" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5257,10 +6545,10 @@
       <c r="A212" t="s">
         <v>72</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="7" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5268,10 +6556,10 @@
       <c r="A213" t="s">
         <v>72</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="7" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5279,10 +6567,10 @@
       <c r="A214" t="s">
         <v>72</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="7" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5290,10 +6578,10 @@
       <c r="A215" t="s">
         <v>333</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5304,7 +6592,7 @@
       <c r="B216" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5312,10 +6600,10 @@
       <c r="A217" t="s">
         <v>333</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="6" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5326,7 +6614,7 @@
       <c r="B218" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="6" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5334,10 +6622,10 @@
       <c r="A219" t="s">
         <v>333</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5348,7 +6636,7 @@
       <c r="B220" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5356,10 +6644,10 @@
       <c r="A221" t="s">
         <v>333</v>
       </c>
-      <c r="B221" s="12" t="s">
+      <c r="B221" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="6" t="s">
         <v>323</v>
       </c>
     </row>
@@ -5367,10 +6655,10 @@
       <c r="A222" t="s">
         <v>333</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C222" s="14" t="s">
+      <c r="C222" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5381,7 +6669,7 @@
       <c r="B223" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C223" s="14" t="s">
+      <c r="C223" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5389,10 +6677,10 @@
       <c r="A224" t="s">
         <v>333</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C224" s="14" t="s">
+      <c r="C224" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5400,10 +6688,10 @@
       <c r="A225" t="s">
         <v>333</v>
       </c>
-      <c r="B225" s="13" t="s">
+      <c r="B225" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C225" s="14" t="s">
+      <c r="C225" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5411,11 +6699,2057 @@
       <c r="A226" t="s">
         <v>333</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C226" s="15" t="s">
+      <c r="C226" s="9" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>337</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>337</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>337</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>337</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>337</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>337</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>337</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>337</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>337</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>337</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>337</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>337</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>338</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>338</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>338</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>338</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>338</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>338</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>338</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>338</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>338</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>338</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>338</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>338</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>338</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>338</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>338</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>338</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>338</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>338</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>338</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>338</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>338</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>338</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>338</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>338</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>338</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>338</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>338</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>338</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>338</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>338</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>338</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>338</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>338</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>338</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>338</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>338</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>338</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>338</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>338</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>338</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>338</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>338</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>338</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>338</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>338</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>338</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>338</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>338</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>338</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>338</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>338</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>338</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>339</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C291" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>339</v>
+      </c>
+      <c r="B292" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C292" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>339</v>
+      </c>
+      <c r="B293" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>339</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>339</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>339</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>339</v>
+      </c>
+      <c r="B297" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>339</v>
+      </c>
+      <c r="B298" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>339</v>
+      </c>
+      <c r="B299" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>339</v>
+      </c>
+      <c r="B300" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C300" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>339</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>339</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>339</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>339</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>339</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>341</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>341</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>341</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>341</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>341</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>341</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>341</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>342</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>342</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>342</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>342</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>342</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>342</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>342</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>343</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>343</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>343</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>343</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>343</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>343</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>343</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>343</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>343</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>343</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>343</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>343</v>
+      </c>
+      <c r="B331" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>343</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>343</v>
+      </c>
+      <c r="B333" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>343</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>343</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>344</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>344</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>344</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>344</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>344</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>344</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>344</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C345" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>344</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>344</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>344</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>344</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>344</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>344</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>344</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>344</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>344</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>344</v>
+      </c>
+      <c r="B355" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>344</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>344</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>344</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>344</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>344</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>344</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>344</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>344</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>344</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>344</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>344</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>344</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>344</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>344</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>344</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>344</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>344</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>344</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>344</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C374" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>344</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>344</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>344</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>344</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>344</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>344</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>344</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>344</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>344</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>344</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>344</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>344</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>344</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>344</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>344</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>344</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>344</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>344</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>344</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>344</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>344</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>344</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>344</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>344</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>344</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>344</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>344</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>344</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C402" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>344</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>344</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>344</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>344</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C406" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>344</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>344</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>344</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>344</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>344</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>344</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5654,8 +8988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7935CF0-BC7A-49D7-97B5-CC1FDCEFC7AE}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
